--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -465,7 +465,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>1</v>
@@ -482,7 +482,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -482,7 +482,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>
@@ -465,7 +465,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -491,7 +491,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -471,7 +471,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -491,7 +491,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -511,7 +511,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -471,7 +471,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata26.xlsx
+++ b/src/assets/js/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -470,9 +470,6 @@
       <c r="B4" t="str">
         <v>To check if we can create location</v>
       </c>
-      <c r="C4" t="str">
-        <v>yes</v>
-      </c>
       <c r="D4" t="str">
         <v>1</v>
       </c>
@@ -490,9 +487,6 @@
       <c r="B5" t="str">
         <v>To check if we can create policy</v>
       </c>
-      <c r="C5" t="str">
-        <v>no</v>
-      </c>
       <c r="D5" t="str">
         <v>1</v>
       </c>
@@ -509,9 +503,6 @@
       </c>
       <c r="B6" t="str">
         <v>To Check invalid driver details</v>
-      </c>
-      <c r="C6" t="str">
-        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
